--- a/赛事运营平台/02管理域/06度量分析/Xunao-SSYYZC_项目度量库.xlsx
+++ b/赛事运营平台/02管理域/06度量分析/Xunao-SSYYZC_项目度量库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27660" tabRatio="865" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="32460" windowHeight="14360" tabRatio="865" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,10 @@
     <sheet name="项目度量报告" sheetId="3" r:id="rId3"/>
     <sheet name="产品规模" sheetId="4" r:id="rId4"/>
     <sheet name="工作量统计分析" sheetId="5" r:id="rId5"/>
-    <sheet name="工期偏差率" sheetId="6" r:id="rId6"/>
-    <sheet name="需求变更率" sheetId="7" r:id="rId7"/>
-    <sheet name="缺陷数据汇总表" sheetId="8" r:id="rId8"/>
+    <sheet name="工期偏差率--修改" sheetId="6" r:id="rId6"/>
+    <sheet name="需求变更率--待修改" sheetId="7" r:id="rId7"/>
+    <sheet name="缺陷数据汇总表--修改同行评审数据分析" sheetId="8" r:id="rId8"/>
     <sheet name="缺陷数量分布图" sheetId="9" r:id="rId9"/>
-    <sheet name="项目不符合项" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="DateStart">#REF!</definedName>
@@ -263,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="194">
   <si>
     <t>[公司名称]</t>
   </si>
@@ -718,34 +717,91 @@
     <t>/</t>
   </si>
   <si>
+    <t>登入认证</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>账号管理</t>
+  </si>
+  <si>
+    <t>裁判名单</t>
+  </si>
+  <si>
+    <t>赛事管理</t>
+  </si>
+  <si>
+    <t>赛程信息管理</t>
+  </si>
+  <si>
     <t>总计</t>
   </si>
   <si>
+    <t>排班管理</t>
+  </si>
+  <si>
+    <t>消息通知</t>
+  </si>
+  <si>
+    <t>排班统计</t>
+  </si>
+  <si>
     <t>按模块统计缺陷汇总表</t>
   </si>
   <si>
+    <t>公告管理</t>
+  </si>
+  <si>
     <t>模块编号</t>
   </si>
   <si>
+    <t>选手管理</t>
+  </si>
+  <si>
+    <t>自定义薪资以及自定义评分</t>
+  </si>
+  <si>
     <t>区域会诊排班管理</t>
   </si>
   <si>
+    <t>val 裁判报告添加</t>
+  </si>
+  <si>
     <t>短信提醒功能</t>
   </si>
   <si>
+    <t>val 地图配置管理</t>
+  </si>
+  <si>
     <t>区域诊断报告</t>
   </si>
   <si>
+    <t>赛程信息同步</t>
+  </si>
+  <si>
     <t>区域图像查询</t>
   </si>
   <si>
+    <t>执裁赛事维护</t>
+  </si>
+  <si>
     <t>PIX查询</t>
   </si>
   <si>
+    <t>执裁赛事信息维护</t>
+  </si>
+  <si>
     <t>人口特征查询</t>
   </si>
   <si>
+    <t>薪资配置列表管理</t>
+  </si>
+  <si>
     <t>身份证卡号查询</t>
+  </si>
+  <si>
+    <t>薪资配置信息维护</t>
   </si>
   <si>
     <t>行政管理与统计</t>
@@ -804,30 +860,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>项目不符合项解决率</t>
-  </si>
-  <si>
-    <t>生命周期阶段</t>
-  </si>
-  <si>
-    <t>未解决</t>
-  </si>
-  <si>
-    <t>已解决</t>
-  </si>
-  <si>
-    <t>不符合项总数</t>
-  </si>
-  <si>
-    <t>个数</t>
-  </si>
-  <si>
-    <t>所占比例</t>
-  </si>
-  <si>
-    <t>项目结项阶段</t>
   </si>
 </sst>
 </file>
@@ -841,13 +873,13 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \¥* #,##0_ ;_ \¥* \-#,##0_ ;_ \¥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="182" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -893,6 +925,11 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="仿宋"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1129,12 +1166,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1148,6 +1179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,7 +1393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1395,6 +1432,17 @@
       <diagonal style="thin">
         <color auto="1"/>
       </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1858,162 +1906,162 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2023,55 +2071,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2080,21 +2089,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2102,7 +2117,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -2111,10 +2126,10 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2154,10 +2169,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2167,10 +2182,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="37" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2178,7 +2193,7 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2189,33 +2204,33 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2225,109 +2240,130 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="5" fillId="5" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="5" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="5" fillId="5" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="3" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="5" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="5" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2336,70 +2372,73 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="5" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="5" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="5" fillId="5" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2408,26 +2447,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2442,7 +2481,7 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2452,7 +2491,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="1" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2461,7 +2503,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2471,22 +2513,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2496,58 +2544,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="58" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2557,45 +2601,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="24" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="25" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="29" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="30" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="63">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
@@ -2658,6 +2706,7 @@
     <cellStyle name="常规_度量数据收集参考列表-V0.1" xfId="59"/>
     <cellStyle name="好_项目度量分析报告" xfId="60"/>
     <cellStyle name="常规_Excel封面" xfId="61"/>
+    <cellStyle name="常规_项目总结表" xfId="62"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3362,756 +3411,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1025" b="0" i="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
-              </a:rPr>
-              <a:t>不符合项解决情况</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1025" b="0" i="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.4075"/>
-          <c:y val="0.042"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0985"/>
-          <c:y val="0.084"/>
-          <c:w val="0.88025"/>
-          <c:h val="0.72225"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>项目不符合项!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>未解决</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="993366"/>
-            </a:solidFill>
-            <a:ln w="12700" cap="flat" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体"/>
-                    <a:ea typeface="宋体"/>
-                    <a:cs typeface="宋体"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-                <c15:leaderLines/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>项目不符合项!$B$4:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>项目计划阶段</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>需求开发阶段</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>系统设计阶段</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>编码实现阶段</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>产品集成阶段</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>系统测试阶段</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>产品交付阶段</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>项目结项阶段</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>项目不符合项!$C$4:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>项目不符合项!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>已解决</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFFCC"/>
-            </a:solidFill>
-            <a:ln w="12700" cap="flat" cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:delete val="1"/>
-            </c:dLbl>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体"/>
-                    <a:ea typeface="宋体"/>
-                    <a:cs typeface="宋体"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-                <c15:leaderLines/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>项目不符合项!$B$4:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>项目计划阶段</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>需求开发阶段</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>系统设计阶段</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>编码实现阶段</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>产品集成阶段</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>系统测试阶段</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>产品交付阶段</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
-                  <c:v>项目结项阶段</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>项目不符合项!$E$4:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="12405113"/>
-        <c:axId val="3870762"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="12405113"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr">
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体"/>
-                    <a:ea typeface="宋体"/>
-                    <a:cs typeface="宋体"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1025" b="1" i="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体"/>
-                    <a:ea typeface="宋体"/>
-                    <a:cs typeface="宋体"/>
-                  </a:rPr>
-                  <a:t>项目生命阶段</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1025" b="1" i="0" u="none" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="宋体"/>
-                  <a:ea typeface="宋体"/>
-                  <a:cs typeface="宋体"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.45525"/>
-              <c:y val="0.925"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1025" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="3870762"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="3870762"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr">
-                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体"/>
-                    <a:ea typeface="宋体"/>
-                    <a:cs typeface="宋体"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1025" b="0" i="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="宋体"/>
-                    <a:ea typeface="宋体"/>
-                    <a:cs typeface="宋体"/>
-                  </a:rPr>
-                  <a:t>个数</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1025" b="0" i="0" u="none" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="宋体"/>
-                  <a:ea typeface="宋体"/>
-                  <a:cs typeface="宋体"/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.03125"/>
-              <c:y val="0.42975"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1025" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="宋体"/>
-                <a:ea typeface="宋体"/>
-                <a:cs typeface="宋体"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="12405113"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="C0C0C0"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="808080"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.8855"/>
-          <c:y val="0.382"/>
-          <c:w val="0.10075"/>
-          <c:h val="0.10925"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="3175" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="860" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:srgbClr val="000000"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr rot="0" vert="horz"/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="宋体"/>
-          <a:ea typeface="宋体"/>
-          <a:cs typeface="宋体"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -4310,7 +3609,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工期偏差率!$B$6:$B$13</c:f>
+              <c:f>'工期偏差率--修改'!$B$6:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -4342,7 +3641,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工期偏差率!$K$6:$K$13</c:f>
+              <c:f>'工期偏差率--修改'!$K$6:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4489,7 +3788,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工期偏差率!$B$6:$B$13</c:f>
+              <c:f>'工期偏差率--修改'!$B$6:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -4521,7 +3820,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工期偏差率!$L$6:$L$13</c:f>
+              <c:f>'工期偏差率--修改'!$L$6:$L$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4655,7 +3954,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工期偏差率!$B$6:$B$13</c:f>
+              <c:f>'工期偏差率--修改'!$B$6:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -4687,7 +3986,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工期偏差率!$P$6:$P$13</c:f>
+              <c:f>'工期偏差率--修改'!$P$6:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4821,7 +4120,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工期偏差率!$B$6:$B$13</c:f>
+              <c:f>'工期偏差率--修改'!$B$6:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -4853,7 +4152,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工期偏差率!$Q$6:$Q$13</c:f>
+              <c:f>'工期偏差率--修改'!$Q$6:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4987,7 +4286,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工期偏差率!$B$6:$B$13</c:f>
+              <c:f>'工期偏差率--修改'!$B$6:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -5019,7 +4318,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工期偏差率!$N$6:$N$13</c:f>
+              <c:f>'工期偏差率--修改'!$N$6:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5153,7 +4452,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工期偏差率!$B$6:$B$13</c:f>
+              <c:f>'工期偏差率--修改'!$B$6:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -5185,7 +4484,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工期偏差率!$O$6:$O$13</c:f>
+              <c:f>'工期偏差率--修改'!$O$6:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5650,7 +4949,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>需求变更率!$H$3</c:f>
+              <c:f>'需求变更率--待修改'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5759,7 +5058,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>需求变更率!$B$4:$B$11</c:f>
+              <c:f>'需求变更率--待修改'!$B$4:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" c:formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@">
@@ -5791,7 +5090,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>需求变更率!$H$4:$H$11</c:f>
+              <c:f>'需求变更率--待修改'!$H$4:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10342,7 +9641,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="工作量统计分析!$B$21:$H$38" spid="_x0000_s12349"/>
+                  <a14:cameraTool cellRange="工作量统计分析!$B$21:$H$38" spid="_x0000_s12329"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10401,7 +9700,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="工期偏差率!$B$21:$L$42" spid="_x0000_s12350"/>
+                  <a14:cameraTool cellRange="'工期偏差率--修改'!$B$21:$L$42" spid="_x0000_s12330"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10460,7 +9759,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="需求变更率!$B$16:$I$37" spid="_x0000_s12351"/>
+                  <a14:cameraTool cellRange="'需求变更率--待修改'!$B$16:$I$37" spid="_x0000_s12331"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10519,7 +9818,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="缺陷数量分布图!$B$12:$F$26" spid="_x0000_s12352"/>
+                  <a14:cameraTool cellRange="缺陷数量分布图!$B$12:$F$26" spid="_x0000_s12332"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10578,7 +9877,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="缺陷数量分布图!$G$12:$M$26" spid="_x0000_s12353"/>
+                  <a14:cameraTool cellRange="缺陷数量分布图!$G$12:$M$26" spid="_x0000_s12333"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10637,7 +9936,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="缺陷数量分布图!$F$30:$M$39" spid="_x0000_s12354"/>
+                  <a14:cameraTool cellRange="缺陷数量分布图!$F$30:$M$39" spid="_x0000_s12334"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10696,7 +9995,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="缺陷数量分布图!$B$49:$F$63" spid="_x0000_s12355"/>
+                  <a14:cameraTool cellRange="缺陷数量分布图!$B$49:$F$63" spid="_x0000_s12335"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10755,7 +10054,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="缺陷数量分布图!$G$49:$L$63" spid="_x0000_s12356"/>
+                  <a14:cameraTool cellRange="缺陷数量分布图!$G$49:$L$63" spid="_x0000_s12336"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10814,7 +10113,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="缺陷数量分布图!$G$67:$L$78" spid="_x0000_s12357"/>
+                  <a14:cameraTool cellRange="缺陷数量分布图!$G$67:$L$78" spid="_x0000_s12337"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10873,7 +10172,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="项目不符合项!$B$17:$G$37" spid="_x0000_s12358"/>
+                  <a14:cameraTool cellRange="'#REF!'!$B$17:$G$37" spid="_x0000_s12338"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10970,7 +10269,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="130175" y="4194810"/>
-        <a:ext cx="10111105" cy="4408170"/>
+        <a:ext cx="10801985" cy="4408170"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11195,41 +10494,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1422400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1032" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="111125" y="3597910"/>
-        <a:ext cx="5520690" cy="4629150"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11565,188 +10829,188 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="153" customWidth="1"/>
-    <col min="2" max="2" width="10.5625" style="153" customWidth="1"/>
-    <col min="3" max="3" width="20.5625" style="153" customWidth="1"/>
-    <col min="4" max="4" width="10.5625" style="153" customWidth="1"/>
-    <col min="5" max="5" width="20.5625" style="153" customWidth="1"/>
-    <col min="6" max="6" width="10.5625" style="153" customWidth="1"/>
-    <col min="7" max="7" width="20.5625" style="153" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="154"/>
+    <col min="1" max="1" width="1.5" style="152" customWidth="1"/>
+    <col min="2" max="2" width="10.5625" style="152" customWidth="1"/>
+    <col min="3" max="3" width="20.5625" style="152" customWidth="1"/>
+    <col min="4" max="4" width="10.5625" style="152" customWidth="1"/>
+    <col min="5" max="5" width="20.5625" style="152" customWidth="1"/>
+    <col min="6" max="6" width="10.5625" style="152" customWidth="1"/>
+    <col min="7" max="7" width="20.5625" style="152" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="153"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.35"/>
     <row r="2" ht="20.4" spans="2:7">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="175"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="176"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="175"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="177"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="176"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="159"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="177"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="176"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="161" t="s">
+      <c r="B6" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="178"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="177"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="163"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="178"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="177"/>
     </row>
     <row r="8" ht="51.2" spans="2:7">
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="179"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="178"/>
     </row>
     <row r="9" ht="51.2" spans="2:7">
-      <c r="B9" s="166"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="180"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="179"/>
     </row>
     <row r="10" ht="51.2" spans="2:7">
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="179"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="178"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="159"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="177"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="176"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="159"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="177"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="176"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="159"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="177"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="176"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="159"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="177"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="176"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="181"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="180"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="159"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="177"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="176"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="159"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="177"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="176"/>
     </row>
     <row r="18" ht="18" spans="2:7">
-      <c r="B18" s="170" t="s">
+      <c r="B18" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="171" t="s">
+      <c r="D18" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="171" t="s">
+      <c r="E18" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="171" t="s">
+      <c r="F18" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="182" t="s">
+      <c r="G18" s="181" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="2:7">
-      <c r="B19" s="172" t="s">
+      <c r="B19" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="173"/>
-      <c r="D19" s="174" t="s">
+      <c r="C19" s="172"/>
+      <c r="D19" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="173"/>
-      <c r="F19" s="174" t="s">
+      <c r="E19" s="172"/>
+      <c r="F19" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="183"/>
+      <c r="G19" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -11777,706 +11041,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="B1:K43"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.6"/>
-  <cols>
-    <col min="1" max="1" width="1.5625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20.4" spans="2:7">
-      <c r="B1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="2:7">
-      <c r="B2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="2:7">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <f>IFERROR(C4/C$12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7">
-        <f>IFERROR(E4/E$12,0)</f>
-        <v>0.363636363636364</v>
-      </c>
-      <c r="G4" s="13">
-        <f>C4+E4</f>
-        <v>8</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" ref="D5:D12" si="0">IFERROR(C5/C$12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" ref="F5:F12" si="1">IFERROR(E5/E$12,0)</f>
-        <v>0.0454545454545455</v>
-      </c>
-      <c r="G5" s="13">
-        <f t="shared" ref="G5:G12" si="2">C5+E5</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.227272727272727</v>
-      </c>
-      <c r="G6" s="13">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="1"/>
-        <v>0.0454545454545455</v>
-      </c>
-      <c r="G7" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="1"/>
-        <v>0.0454545454545455</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="1"/>
-        <v>0.0909090909090909</v>
-      </c>
-      <c r="G9" s="13">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.0909090909090909</v>
-      </c>
-      <c r="G10" s="13">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="1"/>
-        <v>0.0909090909090909</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="9">
-        <f>SUM(C4:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <f>SUM(E4:E11)</f>
-        <v>22</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="13">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1" spans="2:11">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" ht="21" customHeight="1" spans="2:11">
-      <c r="B14" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" ht="21" customHeight="1" spans="2:11">
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" ht="12" customHeight="1" spans="2:11">
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="G2:G3"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
@@ -12488,113 +11052,113 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="1.5625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.8125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.0625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="1.5625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="14.8125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="24.0625" style="52" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="149"/>
+      <c r="C1" s="147"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="150"/>
-      <c r="C2" s="114" t="s">
+      <c r="B2" s="148"/>
+      <c r="C2" s="110" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="140" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="137" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="151"/>
-      <c r="C4" s="140" t="s">
+      <c r="B4" s="149"/>
+      <c r="C4" s="137" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-    </row>
-    <row r="7" s="11" customFormat="1" ht="15.2" spans="2:13">
-      <c r="B7" s="140" t="s">
+      <c r="C6" s="151"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+    </row>
+    <row r="7" s="56" customFormat="1" ht="15.2" spans="2:13">
+      <c r="B7" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" s="11" customFormat="1" ht="15.2" spans="2:13">
-      <c r="B8" s="140" t="s">
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+    </row>
+    <row r="8" s="56" customFormat="1" ht="15.2" spans="2:13">
+      <c r="B8" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" s="11" customFormat="1" ht="15.2" spans="2:3">
-      <c r="B9" s="140" t="s">
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+    </row>
+    <row r="9" s="56" customFormat="1" ht="15.2" spans="2:3">
+      <c r="B9" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="137" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="140"/>
+      <c r="C10" s="137"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12621,714 +11185,714 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:J65"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="1.5625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="15" customWidth="1"/>
-    <col min="3" max="3" width="20.5625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9.57142857142857" style="15" customWidth="1"/>
-    <col min="6" max="6" width="23.0625" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="15.75" style="15"/>
+    <col min="1" max="1" width="1.5625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.57142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.0625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="15.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.4" spans="2:6">
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="119"/>
+      <c r="F2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="125">
+      <c r="D4" s="121">
         <f>工作量统计分析!F4</f>
         <v>24</v>
       </c>
-      <c r="E4" s="142">
+      <c r="E4" s="139">
         <f>IFERROR(D4/D$16,"")</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="F4" s="142">
+      <c r="F4" s="139">
         <f>工作量统计分析!H4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="148"/>
+      <c r="J4" s="146"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="125">
+      <c r="D5" s="121">
         <f>工作量统计分析!F5</f>
         <v>48</v>
       </c>
-      <c r="E5" s="142">
+      <c r="E5" s="139">
         <f t="shared" ref="E5:E16" si="0">IFERROR(D5/D$16,"")</f>
         <v>0.117647058823529</v>
       </c>
-      <c r="F5" s="142">
+      <c r="F5" s="139">
         <f>工作量统计分析!H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="148"/>
+      <c r="J5" s="146"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="125">
+      <c r="D6" s="121">
         <f>工作量统计分析!F6</f>
         <v>40</v>
       </c>
-      <c r="E6" s="142">
+      <c r="E6" s="139">
         <f t="shared" si="0"/>
         <v>0.0980392156862745</v>
       </c>
-      <c r="F6" s="142">
+      <c r="F6" s="139">
         <f>工作量统计分析!H6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="148"/>
+      <c r="J6" s="146"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="125">
+      <c r="D7" s="121">
         <f>工作量统计分析!F7</f>
         <v>183</v>
       </c>
-      <c r="E7" s="142">
+      <c r="E7" s="139">
         <f t="shared" si="0"/>
         <v>0.448529411764706</v>
       </c>
-      <c r="F7" s="142">
+      <c r="F7" s="139">
         <f>工作量统计分析!H7</f>
         <v>0.22</v>
       </c>
-      <c r="J7" s="148"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="125">
+      <c r="D8" s="121">
         <f>工作量统计分析!F8</f>
         <v>10</v>
       </c>
-      <c r="E8" s="142">
+      <c r="E8" s="139">
         <f t="shared" si="0"/>
         <v>0.0245098039215686</v>
       </c>
-      <c r="F8" s="142">
+      <c r="F8" s="139">
         <f>工作量统计分析!H8</f>
         <v>0.25</v>
       </c>
-      <c r="J8" s="148"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="125">
+      <c r="D9" s="121">
         <f>工作量统计分析!F9</f>
         <v>48</v>
       </c>
-      <c r="E9" s="142">
+      <c r="E9" s="139">
         <f t="shared" si="0"/>
         <v>0.117647058823529</v>
       </c>
-      <c r="F9" s="142">
+      <c r="F9" s="139">
         <f>工作量统计分析!H9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="148"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="125">
+      <c r="D10" s="121">
         <f>工作量统计分析!F10</f>
         <v>20</v>
       </c>
-      <c r="E10" s="142">
+      <c r="E10" s="139">
         <f t="shared" si="0"/>
         <v>0.0490196078431373</v>
       </c>
-      <c r="F10" s="142">
+      <c r="F10" s="139">
         <f>工作量统计分析!H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="148"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="125">
+      <c r="D11" s="121">
         <f>工作量统计分析!F11</f>
         <v>8</v>
       </c>
-      <c r="E11" s="142">
+      <c r="E11" s="139">
         <f t="shared" si="0"/>
         <v>0.0196078431372549</v>
       </c>
-      <c r="F11" s="142">
+      <c r="F11" s="139">
         <f>工作量统计分析!H11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="148"/>
+      <c r="J11" s="146"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="125">
+      <c r="D12" s="121">
         <f>工作量统计分析!F12</f>
         <v>8</v>
       </c>
-      <c r="E12" s="142">
+      <c r="E12" s="139">
         <f t="shared" si="0"/>
         <v>0.0196078431372549</v>
       </c>
-      <c r="F12" s="142">
+      <c r="F12" s="139">
         <f>工作量统计分析!H12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="148"/>
+      <c r="J12" s="146"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="125">
+      <c r="D13" s="121">
         <f>工作量统计分析!F13</f>
         <v>8</v>
       </c>
-      <c r="E13" s="142">
+      <c r="E13" s="139">
         <f t="shared" si="0"/>
         <v>0.0196078431372549</v>
       </c>
-      <c r="F13" s="142">
+      <c r="F13" s="139">
         <f>工作量统计分析!H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="148"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="125">
+      <c r="D14" s="121">
         <f>工作量统计分析!F14</f>
         <v>7</v>
       </c>
-      <c r="E14" s="142">
+      <c r="E14" s="139">
         <f t="shared" si="0"/>
         <v>0.017156862745098</v>
       </c>
-      <c r="F14" s="142">
+      <c r="F14" s="139">
         <f>工作量统计分析!H14</f>
         <v>2.5</v>
       </c>
-      <c r="J14" s="148"/>
+      <c r="J14" s="146"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="125">
+      <c r="D15" s="121">
         <f>工作量统计分析!F15</f>
         <v>4</v>
       </c>
-      <c r="E15" s="142">
+      <c r="E15" s="139">
         <f t="shared" si="0"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="F15" s="142">
+      <c r="F15" s="139">
         <f>工作量统计分析!H15</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="J15" s="148"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="124" t="s">
+      <c r="B16" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="126">
+      <c r="D16" s="122">
         <f>SUM(D4:D15)</f>
         <v>408</v>
       </c>
-      <c r="E16" s="142">
+      <c r="E16" s="139">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="139">
         <f>工作量统计分析!H16</f>
         <v>0.111716621253406</v>
       </c>
-      <c r="J16" s="148"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="127"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="144"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="141"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="127"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="144"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="141"/>
     </row>
     <row r="19" spans="4:6">
-      <c r="D19" s="123" t="s">
+      <c r="D19" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="123" t="s">
+      <c r="E19" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="123" t="s">
+      <c r="F19" s="119" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" ht="16.5" customHeight="1" spans="2:6">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="131">
+      <c r="D20" s="127">
         <v>0.2</v>
       </c>
-      <c r="E20" s="131">
+      <c r="E20" s="127">
         <v>0.15</v>
       </c>
-      <c r="F20" s="145" t="s">
+      <c r="F20" s="142" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="3"/>
-      <c r="C21" s="130" t="s">
+      <c r="B21" s="109"/>
+      <c r="C21" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="131">
+      <c r="D21" s="127">
         <v>0.2</v>
       </c>
-      <c r="E21" s="131">
+      <c r="E21" s="127">
         <v>0.15</v>
       </c>
-      <c r="F21" s="145" t="s">
+      <c r="F21" s="142" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="132"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="20"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="4:6">
-      <c r="D23" s="135" t="s">
+      <c r="D23" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="147"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="144"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="136" t="s">
+      <c r="D24" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="3"/>
-      <c r="C25" s="130" t="s">
+      <c r="B25" s="109"/>
+      <c r="C25" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="136" t="s">
+      <c r="D25" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="132"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="20"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="133"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="135" t="s">
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="146"/>
-      <c r="F28" s="147"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="144"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="130" t="s">
+      <c r="C29" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="7">
-        <f>需求变更率!H12</f>
+      <c r="D29" s="135">
+        <f>'需求变更率--待修改'!H12</f>
         <v>0.0571428571428571</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="3"/>
-      <c r="C30" s="130" t="s">
+      <c r="B30" s="109"/>
+      <c r="C30" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="7">
-        <f>需求变更率!I12</f>
+      <c r="D30" s="135">
+        <f>'需求变更率--待修改'!I12</f>
         <v>0.942857142857143</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="135" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="146"/>
-      <c r="F33" s="147"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="144"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="130" t="s">
+      <c r="C34" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="7">
-        <f>项目不符合项!F12</f>
-        <v>1</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="D34" s="135" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="123" t="s">
+      <c r="C36" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="123"/>
-      <c r="E36" s="28"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="3"/>
-      <c r="C37" s="139">
+      <c r="B37" s="109"/>
+      <c r="C37" s="136">
         <f>产品规模!G3</f>
         <v>4.07</v>
       </c>
-      <c r="D37" s="139"/>
-      <c r="E37" s="28"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="140"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="140"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="140"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="140"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="140"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="140"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="140"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="140"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="140"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="140"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="140"/>
-      <c r="F47" s="140"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="140"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="140"/>
-      <c r="F48" s="140"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="140"/>
-      <c r="C49" s="141"/>
-      <c r="D49" s="141"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="140"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="138"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="140"/>
-      <c r="C51" s="141"/>
-      <c r="D51" s="141"/>
-      <c r="E51" s="140"/>
-      <c r="F51" s="140"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="140"/>
-      <c r="C52" s="141"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="140"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="138"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="140"/>
-      <c r="C53" s="141"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="140"/>
-      <c r="F53" s="140"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="140"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="141"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="138"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="140"/>
-      <c r="C55" s="141"/>
-      <c r="D55" s="141"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="140"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="138"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="140"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="141"/>
-      <c r="E56" s="140"/>
-      <c r="F56" s="140"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="138"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="137"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="140"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="140"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="138"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="140"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="140"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="137"/>
+      <c r="F58" s="137"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="140"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="140"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="140"/>
-      <c r="C60" s="141"/>
-      <c r="D60" s="141"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="140"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="140"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="140"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="138"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="140"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="140"/>
-      <c r="C63" s="141"/>
-      <c r="D63" s="141"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="138"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="137"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="140"/>
-      <c r="C64" s="141"/>
-      <c r="D64" s="141"/>
-      <c r="E64" s="140"/>
-      <c r="F64" s="140"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="138"/>
+      <c r="D64" s="138"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="140"/>
-      <c r="C65" s="141"/>
-      <c r="D65" s="141"/>
-      <c r="E65" s="140"/>
-      <c r="F65" s="140"/>
+      <c r="B65" s="137"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="138"/>
+      <c r="E65" s="137"/>
+      <c r="F65" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -13393,106 +11957,106 @@
   <dimension ref="B1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.6" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="1.5625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.8125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="17.8125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="23.0625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="1.5625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="6.8125" style="52" customWidth="1"/>
+    <col min="3" max="4" width="17.8125" style="52" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="52" customWidth="1"/>
+    <col min="6" max="6" width="16.3125" style="52" customWidth="1"/>
+    <col min="7" max="8" width="23.0625" style="52" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="52"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.4" spans="2:8">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="2" ht="31" spans="2:8">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="118" t="s">
+      <c r="H2" s="114" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="114">
+      <c r="C3" s="110">
         <v>367</v>
       </c>
-      <c r="D3" s="114">
+      <c r="D3" s="110">
         <v>407</v>
       </c>
-      <c r="E3" s="114">
+      <c r="E3" s="110">
         <v>100</v>
       </c>
-      <c r="F3" s="80">
+      <c r="F3" s="74">
         <f>IFERROR((D3-C3)/C3,"")</f>
         <v>0.108991825613079</v>
       </c>
-      <c r="G3" s="119">
+      <c r="G3" s="115">
         <f>D3/E3</f>
         <v>4.07</v>
       </c>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="121"/>
+      <c r="L3" s="117"/>
     </row>
     <row r="4" ht="23.25" customHeight="1" spans="2:8">
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="105" t="s">
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="100" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1" spans="2:4">
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
     </row>
     <row r="6" ht="21" customHeight="1" spans="2:8">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13516,440 +12080,440 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="1.5625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="11" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.8125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="15" style="11" customWidth="1"/>
-    <col min="8" max="8" width="22.25" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="11"/>
+    <col min="1" max="1" width="1.5625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="56" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="56" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="56" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="56" customWidth="1"/>
+    <col min="6" max="6" width="16.8125" style="56" customWidth="1"/>
+    <col min="7" max="7" width="15" style="56" customWidth="1"/>
+    <col min="8" max="8" width="22.25" style="56" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" s="75" customFormat="1" ht="20.4" spans="2:8">
-      <c r="B1" s="104" t="s">
+    <row r="1" s="69" customFormat="1" ht="20.4" spans="2:8">
+      <c r="B1" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-    </row>
-    <row r="2" s="75" customFormat="1" ht="15" customHeight="1" spans="2:8">
-      <c r="B2" s="30" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+    </row>
+    <row r="2" s="69" customFormat="1" ht="15" customHeight="1" spans="2:8">
+      <c r="B2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="111" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="106" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" s="75" customFormat="1" ht="15" customHeight="1" spans="2:8">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30" t="s">
+    <row r="3" s="69" customFormat="1" ht="15" customHeight="1" spans="2:8">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="111"/>
-    </row>
-    <row r="4" s="75" customFormat="1" ht="16" spans="2:8">
-      <c r="B4" s="105" t="s">
+      <c r="H3" s="106"/>
+    </row>
+    <row r="4" s="69" customFormat="1" ht="16" spans="2:8">
+      <c r="B4" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="101">
         <v>24</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="66">
         <f>IFERROR(D4/D$16,"")</f>
         <v>0.0653950953678474</v>
       </c>
-      <c r="F4" s="106">
+      <c r="F4" s="101">
         <v>24</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="66">
         <f>IFERROR(F4/F$16,"")</f>
         <v>0.0588235294117647</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="66">
         <f>IFERROR((F4-D4)/D4,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="75" customFormat="1" ht="16" spans="2:8">
-      <c r="B5" s="105" t="s">
+    <row r="5" s="69" customFormat="1" ht="16" spans="2:8">
+      <c r="B5" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="106">
+      <c r="D5" s="101">
         <v>48</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="66">
         <f t="shared" ref="E5:E16" si="0">IFERROR(D5/D$16,"")</f>
         <v>0.130790190735695</v>
       </c>
-      <c r="F5" s="106">
+      <c r="F5" s="101">
         <v>48</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="66">
         <f t="shared" ref="G5:G16" si="1">IFERROR(F5/F$16,"")</f>
         <v>0.117647058823529</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="66">
         <f t="shared" ref="H5:H16" si="2">IFERROR((F5-D5)/D5,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="75" customFormat="1" ht="16" spans="2:8">
-      <c r="B6" s="105" t="s">
+    <row r="6" s="69" customFormat="1" ht="16" spans="2:8">
+      <c r="B6" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="106">
+      <c r="D6" s="101">
         <v>40</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="66">
         <f t="shared" si="0"/>
         <v>0.108991825613079</v>
       </c>
-      <c r="F6" s="106">
+      <c r="F6" s="101">
         <v>40</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="66">
         <f t="shared" si="1"/>
         <v>0.0980392156862745</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="75" customFormat="1" ht="16" spans="2:8">
-      <c r="B7" s="105" t="s">
+    <row r="7" s="69" customFormat="1" ht="16" spans="2:8">
+      <c r="B7" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="106">
+      <c r="D7" s="101">
         <v>150</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="66">
         <f t="shared" si="0"/>
         <v>0.408719346049046</v>
       </c>
-      <c r="F7" s="106">
+      <c r="F7" s="101">
         <v>183</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="66">
         <f t="shared" si="1"/>
         <v>0.448529411764706</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="66">
         <f t="shared" si="2"/>
         <v>0.22</v>
       </c>
     </row>
-    <row r="8" s="75" customFormat="1" ht="16" spans="2:8">
-      <c r="B8" s="105" t="s">
+    <row r="8" s="69" customFormat="1" ht="16" spans="2:8">
+      <c r="B8" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="106">
+      <c r="D8" s="101">
         <v>8</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="66">
         <f t="shared" si="0"/>
         <v>0.0217983651226158</v>
       </c>
-      <c r="F8" s="106">
+      <c r="F8" s="101">
         <v>10</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="66">
         <f t="shared" si="1"/>
         <v>0.0245098039215686</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="66">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" s="75" customFormat="1" ht="16" spans="2:8">
-      <c r="B9" s="105" t="s">
+    <row r="9" s="69" customFormat="1" ht="16" spans="2:8">
+      <c r="B9" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="106">
+      <c r="D9" s="101">
         <v>48</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="66">
         <f t="shared" si="0"/>
         <v>0.130790190735695</v>
       </c>
-      <c r="F9" s="106">
+      <c r="F9" s="101">
         <v>48</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="66">
         <f t="shared" si="1"/>
         <v>0.117647058823529</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="75" customFormat="1" ht="16" spans="2:8">
-      <c r="B10" s="105" t="s">
+    <row r="10" s="69" customFormat="1" ht="16" spans="2:8">
+      <c r="B10" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="106">
+      <c r="D10" s="101">
         <v>20</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="66">
         <f t="shared" si="0"/>
         <v>0.0544959128065395</v>
       </c>
-      <c r="F10" s="106">
+      <c r="F10" s="101">
         <v>20</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="66">
         <f t="shared" si="1"/>
         <v>0.0490196078431373</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H10" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="75" customFormat="1" ht="16" spans="2:8">
-      <c r="B11" s="105" t="s">
+    <row r="11" s="69" customFormat="1" ht="16" spans="2:8">
+      <c r="B11" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="106">
+      <c r="D11" s="101">
         <v>8</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="66">
         <f t="shared" si="0"/>
         <v>0.0217983651226158</v>
       </c>
-      <c r="F11" s="106">
+      <c r="F11" s="101">
         <v>8</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="66">
         <f t="shared" si="1"/>
         <v>0.0196078431372549</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="75" customFormat="1" ht="16" spans="2:8">
-      <c r="B12" s="105" t="s">
+    <row r="12" s="69" customFormat="1" ht="16" spans="2:8">
+      <c r="B12" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="106">
+      <c r="D12" s="101">
         <v>8</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="66">
         <f t="shared" si="0"/>
         <v>0.0217983651226158</v>
       </c>
-      <c r="F12" s="106">
+      <c r="F12" s="101">
         <v>8</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="66">
         <f t="shared" si="1"/>
         <v>0.0196078431372549</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="75" customFormat="1" ht="16" spans="2:8">
-      <c r="B13" s="105" t="s">
+    <row r="13" s="69" customFormat="1" ht="16" spans="2:8">
+      <c r="B13" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="106">
+      <c r="D13" s="101">
         <v>8</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="66">
         <f t="shared" si="0"/>
         <v>0.0217983651226158</v>
       </c>
-      <c r="F13" s="106">
+      <c r="F13" s="101">
         <v>8</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="66">
         <f t="shared" si="1"/>
         <v>0.0196078431372549</v>
       </c>
-      <c r="H13" s="72">
+      <c r="H13" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="75" customFormat="1" ht="16" spans="2:8">
-      <c r="B14" s="105" t="s">
+    <row r="14" s="69" customFormat="1" ht="16" spans="2:8">
+      <c r="B14" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="106">
+      <c r="D14" s="101">
         <v>2</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="66">
         <f t="shared" si="0"/>
         <v>0.00544959128065395</v>
       </c>
-      <c r="F14" s="106">
+      <c r="F14" s="101">
         <v>7</v>
       </c>
-      <c r="G14" s="72">
+      <c r="G14" s="66">
         <f t="shared" si="1"/>
         <v>0.017156862745098</v>
       </c>
-      <c r="H14" s="72">
+      <c r="H14" s="66">
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" s="75" customFormat="1" ht="16" spans="2:8">
-      <c r="B15" s="105" t="s">
+    <row r="15" s="69" customFormat="1" ht="16" spans="2:8">
+      <c r="B15" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="106">
+      <c r="D15" s="101">
         <v>3</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="66">
         <f t="shared" si="0"/>
         <v>0.00817438692098093</v>
       </c>
-      <c r="F15" s="106">
+      <c r="F15" s="101">
         <v>4</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="66">
         <f t="shared" si="1"/>
         <v>0.00980392156862745</v>
       </c>
-      <c r="H15" s="72">
+      <c r="H15" s="66">
         <f t="shared" si="2"/>
         <v>0.333333333333333</v>
       </c>
     </row>
-    <row r="16" s="75" customFormat="1" spans="2:10">
-      <c r="B16" s="105" t="s">
+    <row r="16" s="69" customFormat="1" spans="2:10">
+      <c r="B16" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="107">
+      <c r="C16" s="100"/>
+      <c r="D16" s="102">
         <f>SUM(D4:D15)</f>
         <v>367</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="66">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F16" s="107">
+      <c r="F16" s="102">
         <f>SUM(F4:F15)</f>
         <v>408</v>
       </c>
-      <c r="G16" s="72">
+      <c r="G16" s="66">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16" s="72">
+      <c r="H16" s="66">
         <f t="shared" si="2"/>
         <v>0.111716621253406</v>
       </c>
-      <c r="J16" s="112"/>
-    </row>
-    <row r="17" s="75" customFormat="1" ht="21.75" customHeight="1" spans="2:5">
-      <c r="B17" s="69" t="s">
+      <c r="J16" s="107"/>
+    </row>
+    <row r="17" s="69" customFormat="1" ht="21.75" customHeight="1" spans="2:5">
+      <c r="B17" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
     </row>
     <row r="20" ht="61" spans="1:5">
-      <c r="A20" s="109" t="s">
+      <c r="A20" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
     </row>
     <row r="38" spans="3:6">
-      <c r="C38" s="108" t="s">
+      <c r="C38" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13981,841 +12545,841 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="1.5625" style="75" customWidth="1"/>
-    <col min="2" max="2" width="16.0625" style="76" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="76" customWidth="1"/>
-    <col min="4" max="5" width="14.5" style="77" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="78" customWidth="1"/>
-    <col min="7" max="7" width="9.3125" style="78" customWidth="1"/>
-    <col min="8" max="8" width="9.3125" style="77" customWidth="1"/>
-    <col min="9" max="10" width="13.5625" style="77" customWidth="1"/>
-    <col min="11" max="11" width="11.3125" style="77" customWidth="1"/>
-    <col min="12" max="12" width="11.3125" style="76" customWidth="1"/>
-    <col min="13" max="13" width="9.75" style="76" customWidth="1"/>
-    <col min="14" max="16" width="9.5625" style="75" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="75"/>
+    <col min="1" max="1" width="1.5625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="16.0625" style="70" customWidth="1"/>
+    <col min="3" max="3" width="16.9285714285714" style="70" customWidth="1"/>
+    <col min="4" max="5" width="16.9285714285714" style="71" customWidth="1"/>
+    <col min="6" max="6" width="16.9285714285714" style="72" customWidth="1"/>
+    <col min="7" max="7" width="9.3125" style="72" customWidth="1"/>
+    <col min="8" max="8" width="9.3125" style="71" customWidth="1"/>
+    <col min="9" max="10" width="13.5625" style="71" customWidth="1"/>
+    <col min="11" max="11" width="11.3125" style="71" customWidth="1"/>
+    <col min="12" max="12" width="11.3125" style="70" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="70" customWidth="1"/>
+    <col min="14" max="16" width="9.5625" style="69" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" spans="2:13">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="100"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="2:13">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="80">
+      <c r="C2" s="74">
         <v>0.2</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="G2" s="77"/>
-      <c r="K2" s="76"/>
-      <c r="M2" s="75"/>
+      <c r="E2" s="72"/>
+      <c r="G2" s="71"/>
+      <c r="K2" s="70"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:13">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="80">
+      <c r="C3" s="74">
         <v>0.15</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="G3" s="77"/>
-      <c r="K3" s="76"/>
-      <c r="M3" s="75"/>
+      <c r="E3" s="72"/>
+      <c r="G3" s="71"/>
+      <c r="K3" s="70"/>
+      <c r="M3" s="69"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="2:13">
-      <c r="B4" s="81"/>
-      <c r="C4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="G4" s="77"/>
-      <c r="K4" s="76"/>
-      <c r="M4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="G4" s="71"/>
+      <c r="K4" s="70"/>
+      <c r="M4" s="69"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="2:17">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="H5" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="I5" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="93" t="s">
+      <c r="J5" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75" t="s">
+      <c r="M5" s="69"/>
+      <c r="N5" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="O5" s="75" t="s">
+      <c r="O5" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="P5" s="75" t="s">
+      <c r="P5" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="Q5" s="75" t="s">
+      <c r="Q5" s="69" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="2:17">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="78">
         <v>43701</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="78">
         <v>43701</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="78">
         <v>43712</v>
       </c>
-      <c r="F6" s="84">
+      <c r="F6" s="78">
         <v>43712</v>
       </c>
-      <c r="G6" s="94">
+      <c r="G6" s="89">
         <f>E6-C6</f>
         <v>11</v>
       </c>
-      <c r="H6" s="94">
+      <c r="H6" s="89">
         <f>F6-D6</f>
         <v>11</v>
       </c>
-      <c r="I6" s="94">
+      <c r="I6" s="89">
         <f>G6</f>
         <v>11</v>
       </c>
-      <c r="J6" s="94">
+      <c r="J6" s="89">
         <f>H6</f>
         <v>11</v>
       </c>
-      <c r="K6" s="80">
+      <c r="K6" s="74">
         <f>IFERROR((H6-G6)/G6,"")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="80">
+      <c r="L6" s="74">
         <f>IFERROR((J6-I6)/I6,"")</f>
         <v>0</v>
       </c>
-      <c r="M6" s="101"/>
-      <c r="N6" s="102">
+      <c r="M6" s="96"/>
+      <c r="N6" s="97">
         <f>$C$2</f>
         <v>0.2</v>
       </c>
-      <c r="O6" s="102">
+      <c r="O6" s="97">
         <f>-$C$2</f>
         <v>-0.2</v>
       </c>
-      <c r="P6" s="103">
+      <c r="P6" s="98">
         <f>$C$3</f>
         <v>0.15</v>
       </c>
-      <c r="Q6" s="103">
+      <c r="Q6" s="98">
         <f>-$C$3</f>
         <v>-0.15</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:17">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="78">
         <v>43712</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="78">
         <v>43712</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="78">
         <v>43758</v>
       </c>
-      <c r="F7" s="84">
+      <c r="F7" s="78">
         <v>43756</v>
       </c>
-      <c r="G7" s="94">
+      <c r="G7" s="89">
         <f t="shared" ref="G7:G14" si="0">E7-C7</f>
         <v>46</v>
       </c>
-      <c r="H7" s="94">
+      <c r="H7" s="89">
         <f t="shared" ref="H7:H14" si="1">F7-D7</f>
         <v>44</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="89">
         <f>I6+G7</f>
         <v>57</v>
       </c>
-      <c r="J7" s="94">
+      <c r="J7" s="89">
         <f>J6+H7</f>
         <v>55</v>
       </c>
-      <c r="K7" s="80">
+      <c r="K7" s="74">
         <f t="shared" ref="K7:K14" si="2">IFERROR((H7-G7)/G7,"")</f>
         <v>-0.0434782608695652</v>
       </c>
-      <c r="L7" s="80">
+      <c r="L7" s="74">
         <f t="shared" ref="L7:L13" si="3">IFERROR((J7-I7)/I7,"")</f>
         <v>-0.0350877192982456</v>
       </c>
-      <c r="M7" s="101"/>
-      <c r="N7" s="102">
+      <c r="M7" s="96"/>
+      <c r="N7" s="97">
         <f t="shared" ref="N7:N15" si="4">$C$2</f>
         <v>0.2</v>
       </c>
-      <c r="O7" s="102">
+      <c r="O7" s="97">
         <f t="shared" ref="O7:O15" si="5">-$C$2</f>
         <v>-0.2</v>
       </c>
-      <c r="P7" s="103">
+      <c r="P7" s="98">
         <f t="shared" ref="P7:P15" si="6">$C$3</f>
         <v>0.15</v>
       </c>
-      <c r="Q7" s="103">
+      <c r="Q7" s="98">
         <f t="shared" ref="Q7:Q15" si="7">-$C$3</f>
         <v>-0.15</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:17">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="78">
         <v>43758</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8" s="78">
         <v>43758</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="78">
         <v>43792</v>
       </c>
-      <c r="F8" s="84">
+      <c r="F8" s="78">
         <v>43792</v>
       </c>
-      <c r="G8" s="94">
+      <c r="G8" s="89">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H8" s="94">
+      <c r="H8" s="89">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8" s="89">
         <f>I7+G8</f>
         <v>91</v>
       </c>
-      <c r="J8" s="94">
+      <c r="J8" s="89">
         <f t="shared" ref="J8:J13" si="8">J7+H8</f>
         <v>89</v>
       </c>
-      <c r="K8" s="80">
+      <c r="K8" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L8" s="80">
+      <c r="L8" s="74">
         <f t="shared" si="3"/>
         <v>-0.021978021978022</v>
       </c>
-      <c r="M8" s="101"/>
-      <c r="N8" s="102">
+      <c r="M8" s="96"/>
+      <c r="N8" s="97">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="O8" s="102">
+      <c r="O8" s="97">
         <f t="shared" si="5"/>
         <v>-0.2</v>
       </c>
-      <c r="P8" s="103">
+      <c r="P8" s="98">
         <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
-      <c r="Q8" s="103">
+      <c r="Q8" s="98">
         <f t="shared" si="7"/>
         <v>-0.15</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:17">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="84">
+      <c r="C9" s="78">
         <v>43792</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="78">
         <v>43792</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="78">
         <v>43814</v>
       </c>
-      <c r="F9" s="84">
+      <c r="F9" s="78">
         <v>43815</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="89">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="89">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="89">
         <f t="shared" ref="I9:I13" si="9">I8+G9</f>
         <v>113</v>
       </c>
-      <c r="J9" s="94">
+      <c r="J9" s="89">
         <f t="shared" si="8"/>
         <v>112</v>
       </c>
-      <c r="K9" s="80">
+      <c r="K9" s="74">
         <f t="shared" si="2"/>
         <v>0.0454545454545455</v>
       </c>
-      <c r="L9" s="80">
+      <c r="L9" s="74">
         <f t="shared" si="3"/>
         <v>-0.00884955752212389</v>
       </c>
-      <c r="M9" s="101"/>
-      <c r="N9" s="102">
+      <c r="M9" s="96"/>
+      <c r="N9" s="97">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="O9" s="102">
+      <c r="O9" s="97">
         <f t="shared" si="5"/>
         <v>-0.2</v>
       </c>
-      <c r="P9" s="103">
+      <c r="P9" s="98">
         <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
-      <c r="Q9" s="103">
+      <c r="Q9" s="98">
         <f t="shared" si="7"/>
         <v>-0.15</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="2:17">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="78">
         <v>43814</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="78">
         <v>43814</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="78">
         <v>43817</v>
       </c>
-      <c r="F10" s="84">
+      <c r="F10" s="78">
         <v>43817</v>
       </c>
-      <c r="G10" s="94">
+      <c r="G10" s="89">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H10" s="94">
+      <c r="H10" s="89">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I10" s="94">
+      <c r="I10" s="89">
         <f t="shared" si="9"/>
         <v>116</v>
       </c>
-      <c r="J10" s="94">
+      <c r="J10" s="89">
         <f t="shared" si="8"/>
         <v>115</v>
       </c>
-      <c r="K10" s="80">
+      <c r="K10" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="80">
+      <c r="L10" s="74">
         <f t="shared" si="3"/>
         <v>-0.00862068965517241</v>
       </c>
-      <c r="M10" s="101"/>
-      <c r="N10" s="102">
+      <c r="M10" s="96"/>
+      <c r="N10" s="97">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="O10" s="102">
+      <c r="O10" s="97">
         <f t="shared" si="5"/>
         <v>-0.2</v>
       </c>
-      <c r="P10" s="103">
+      <c r="P10" s="98">
         <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
-      <c r="Q10" s="103">
+      <c r="Q10" s="98">
         <f t="shared" si="7"/>
         <v>-0.15</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="2:17">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="78">
         <v>43817</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="78">
         <v>43817</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="78">
         <v>43838</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="78">
         <v>43838</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="89">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="89">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="89">
         <f t="shared" si="9"/>
         <v>137</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="89">
         <f t="shared" si="8"/>
         <v>136</v>
       </c>
-      <c r="K11" s="80">
+      <c r="K11" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="80">
+      <c r="L11" s="74">
         <f t="shared" si="3"/>
         <v>-0.0072992700729927</v>
       </c>
-      <c r="M11" s="101"/>
-      <c r="N11" s="102">
+      <c r="M11" s="96"/>
+      <c r="N11" s="97">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="O11" s="102">
+      <c r="O11" s="97">
         <f t="shared" si="5"/>
         <v>-0.2</v>
       </c>
-      <c r="P11" s="103">
+      <c r="P11" s="98">
         <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
-      <c r="Q11" s="103">
+      <c r="Q11" s="98">
         <f t="shared" si="7"/>
         <v>-0.15</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:17">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="78">
         <v>43838</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="78">
         <v>43838</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="78">
         <v>43842</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="78">
         <v>43842</v>
       </c>
-      <c r="G12" s="94">
+      <c r="G12" s="89">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H12" s="94">
+      <c r="H12" s="89">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I12" s="94">
+      <c r="I12" s="89">
         <f t="shared" si="9"/>
         <v>141</v>
       </c>
-      <c r="J12" s="94">
+      <c r="J12" s="89">
         <f t="shared" si="8"/>
         <v>140</v>
       </c>
-      <c r="K12" s="80">
+      <c r="K12" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="80">
+      <c r="L12" s="74">
         <f t="shared" si="3"/>
         <v>-0.00709219858156028</v>
       </c>
-      <c r="M12" s="101"/>
-      <c r="N12" s="102">
+      <c r="M12" s="96"/>
+      <c r="N12" s="97">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="O12" s="102">
+      <c r="O12" s="97">
         <f t="shared" si="5"/>
         <v>-0.2</v>
       </c>
-      <c r="P12" s="103">
+      <c r="P12" s="98">
         <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
-      <c r="Q12" s="103">
+      <c r="Q12" s="98">
         <f t="shared" si="7"/>
         <v>-0.15</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="2:17">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="78">
         <v>43842</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="78">
         <v>43842</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="78">
         <v>43845</v>
       </c>
-      <c r="F13" s="84">
+      <c r="F13" s="78">
         <v>43845</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="89">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H13" s="94">
+      <c r="H13" s="89">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I13" s="94">
+      <c r="I13" s="89">
         <f t="shared" si="9"/>
         <v>144</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="89">
         <f t="shared" si="8"/>
         <v>143</v>
       </c>
-      <c r="K13" s="80">
+      <c r="K13" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="80">
+      <c r="L13" s="74">
         <f t="shared" si="3"/>
         <v>-0.00694444444444444</v>
       </c>
-      <c r="M13" s="101"/>
-      <c r="N13" s="102">
+      <c r="M13" s="96"/>
+      <c r="N13" s="97">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="O13" s="102">
+      <c r="O13" s="97">
         <f t="shared" si="5"/>
         <v>-0.2</v>
       </c>
-      <c r="P13" s="103">
+      <c r="P13" s="98">
         <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
-      <c r="Q13" s="103">
+      <c r="Q13" s="98">
         <f t="shared" si="7"/>
         <v>-0.15</v>
       </c>
     </row>
     <row r="14" ht="19.5" customHeight="1" spans="2:17">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="78">
         <v>43701</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="78">
         <v>43701</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="78">
         <v>43845</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F14" s="78">
         <v>43845</v>
       </c>
-      <c r="G14" s="94">
+      <c r="G14" s="89">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H14" s="89">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="80">
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="80"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="102">
+      <c r="L14" s="74"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="97">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="O14" s="102">
+      <c r="O14" s="97">
         <f t="shared" si="5"/>
         <v>-0.2</v>
       </c>
-      <c r="P14" s="103">
+      <c r="P14" s="98">
         <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
-      <c r="Q14" s="103">
+      <c r="Q14" s="98">
         <f t="shared" si="7"/>
         <v>-0.15</v>
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="80">
         <f>MIN(C6:C14)</f>
         <v>43701</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="80">
         <f>MIN(D6:D14)</f>
         <v>43701</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="80">
         <f>MAX(E6:E14)</f>
         <v>43845</v>
       </c>
-      <c r="F15" s="86">
+      <c r="F15" s="80">
         <f>MAX(F6:F14)</f>
         <v>43845</v>
       </c>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="102">
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="97">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="O15" s="102">
+      <c r="O15" s="97">
         <f t="shared" si="5"/>
         <v>-0.2</v>
       </c>
-      <c r="P15" s="103">
+      <c r="P15" s="98">
         <f t="shared" si="6"/>
         <v>0.15</v>
       </c>
-      <c r="Q15" s="103">
+      <c r="Q15" s="98">
         <f t="shared" si="7"/>
         <v>-0.15</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="2:15">
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="O16" s="101" t="s">
+      <c r="O16" s="96" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="2:15">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101" t="s">
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="O17" s="101" t="s">
+      <c r="O17" s="96" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:15">
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="M18" s="101" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="M18" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="N18" s="101" t="s">
+      <c r="N18" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="O18" s="101" t="s">
+      <c r="O18" s="96" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" spans="2:13">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="102"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="97"/>
     </row>
     <row r="20" ht="17.6" spans="2:12">
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
     </row>
     <row r="21" ht="17.6" spans="2:12">
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
     </row>
     <row r="22" ht="17.6" spans="2:13">
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="75"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="69"/>
     </row>
     <row r="23" ht="17.6" spans="2:12">
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
     </row>
     <row r="24" ht="17.6" spans="2:12">
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
     </row>
     <row r="25" ht="17.6" spans="2:12">
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
     </row>
     <row r="26" ht="17.6" spans="2:12">
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14840,356 +13404,356 @@
   <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="6" width="11.3125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.3125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="2.75" style="52" customWidth="1"/>
+    <col min="2" max="2" width="17" style="52" customWidth="1"/>
+    <col min="3" max="6" width="11.3125" style="52" customWidth="1"/>
+    <col min="7" max="7" width="9.3125" style="52" customWidth="1"/>
+    <col min="8" max="9" width="11.3125" style="52" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="52"/>
   </cols>
   <sheetData>
     <row r="1" ht="21.15" spans="2:9">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="2:9">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="67" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="2:9">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="60">
         <v>0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="60">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="60">
         <v>0</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="65">
         <f>C2+C4-E4</f>
         <v>33</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="65">
         <f>SUM(C4:E4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="66">
         <f t="shared" ref="H4:H12" si="0">IFERROR(SUM(C4:E4)/F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="68">
         <f t="shared" ref="I4:I12" si="1">1-H4</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="2:9">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="60">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="60">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="60">
         <v>0</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="65">
         <f>F4+C5-E5</f>
         <v>34</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="65">
         <f t="shared" ref="G5:G11" si="2">SUM(C5:E5)+G4</f>
         <v>1</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="66">
         <f t="shared" si="0"/>
         <v>0.0294117647058824</v>
       </c>
-      <c r="I5" s="74">
+      <c r="I5" s="68">
         <f t="shared" si="1"/>
         <v>0.970588235294118</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="2:9">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="60">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="60">
         <v>0</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="60">
         <v>0</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="65">
         <f t="shared" ref="F6:F11" si="3">F5+C6-E6</f>
         <v>35</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="65">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="66">
         <f t="shared" si="0"/>
         <v>0.0285714285714286</v>
       </c>
-      <c r="I6" s="74">
+      <c r="I6" s="68">
         <f t="shared" si="1"/>
         <v>0.971428571428571</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:9">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="60">
         <v>0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="60">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="60">
         <v>0</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="65">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="65">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="74">
+      <c r="I7" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:9">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="60">
         <v>0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="60">
         <v>0</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="60">
         <v>0</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="65">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="65">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:9">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="60">
         <v>0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="60">
         <v>0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="60">
         <v>0</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="65">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="65">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H9" s="72">
+      <c r="H9" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="74">
+      <c r="I9" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="2:9">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="60">
         <v>0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="60">
         <v>0</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="60">
         <v>0</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="65">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="65">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H10" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="74">
+      <c r="I10" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="2:9">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="60">
         <v>0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="60">
         <v>0</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="60">
         <v>0</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="65">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="65">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="74">
+      <c r="I11" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="2:9">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="62">
         <f>SUM(C4:C11)</f>
         <v>2</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="62">
         <v>0</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="62">
         <v>0</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="62">
         <f>F11</f>
         <v>35</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="65">
         <f>G11</f>
         <v>2</v>
       </c>
-      <c r="H12" s="72">
+      <c r="H12" s="66">
         <f t="shared" si="0"/>
         <v>0.0571428571428571</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="68">
         <f t="shared" si="1"/>
         <v>0.942857142857143</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="2:9">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="2:2">
-      <c r="B14" s="70"/>
+      <c r="B14" s="64"/>
     </row>
     <row r="15" ht="9" customHeight="1"/>
   </sheetData>
@@ -15207,873 +13771,928 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="B1:L42"/>
+  <dimension ref="B1:N42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="1.5625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="14.8125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="33" customWidth="1"/>
-    <col min="4" max="5" width="11.3125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="7.3125" style="33" customWidth="1"/>
-    <col min="7" max="11" width="11.3125" style="33" customWidth="1"/>
-    <col min="12" max="12" width="9" style="33" customWidth="1"/>
-    <col min="13" max="13" width="12.0625" style="33" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="1.5625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="14.8125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="21" customWidth="1"/>
+    <col min="4" max="5" width="11.3125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="7.3125" style="21" customWidth="1"/>
+    <col min="7" max="11" width="11.3125" style="21" customWidth="1"/>
+    <col min="12" max="12" width="9" style="21" customWidth="1"/>
+    <col min="13" max="13" width="12.0625" style="21" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" s="32" customFormat="1" ht="20.4" spans="2:11">
-      <c r="B1" s="34" t="s">
+    <row r="1" s="20" customFormat="1" ht="20.4" spans="2:11">
+      <c r="B1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L3" s="58"/>
+      <c r="L3" s="46"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="24">
         <v>7</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="40">
         <v>7</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="24">
         <v>0</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="24">
         <v>0</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="10">
         <f>D4+G4</f>
         <v>7</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="10">
         <f>E4+H4</f>
         <v>7</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="47" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="24">
         <v>6</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="40">
         <v>6</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="24">
         <v>0</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="24">
         <v>0</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="10">
         <f t="shared" ref="I5:I11" si="0">D5+G5</f>
         <v>6</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="10">
         <f t="shared" ref="J5:J11" si="1">E5+H5</f>
         <v>6</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="47" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="8" t="s">
+    <row r="6" ht="17.6" spans="2:14">
+      <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="26">
         <v>3</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="42">
         <v>3</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="24">
         <v>0</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="24">
         <v>0</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="47" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="8" t="s">
+      <c r="N6" s="50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="2:14">
+      <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="27">
         <v>41</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="43">
         <v>41</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="24">
         <v>0</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="24">
         <v>0</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="10">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="47" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="8" t="s">
+      <c r="N7" s="50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" ht="17.6" spans="2:14">
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="27">
         <v>1</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="43">
         <v>1</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="24">
         <v>3</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="24">
         <v>3</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="47" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="8" t="s">
+      <c r="N8" s="50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" ht="17.6" spans="2:14">
+      <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="24">
         <v>3</v>
       </c>
-      <c r="E9" s="52">
+      <c r="E9" s="40">
         <v>3</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="24">
         <v>30</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="24">
         <v>30</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="10">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="47" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="8" t="s">
+      <c r="N9" s="50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" ht="17.6" spans="2:14">
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="27">
         <v>1</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="43">
         <v>1</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="27">
         <v>0</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="27">
         <v>0</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="47" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="8" t="s">
+      <c r="N10" s="50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" ht="17.6" spans="2:14">
+      <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="27">
         <v>2</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="43">
         <v>2</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="27">
         <v>0</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="27">
         <v>0</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="47" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="42">
+      <c r="N11" s="50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" ht="17.6" spans="2:14">
+      <c r="B12" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="30">
         <f t="shared" ref="C12:K12" si="2">SUM(C4:C11)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="31">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="45">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="31">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="31">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="10">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="10">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="44" t="s">
+      <c r="N12" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" ht="17.6" spans="2:14">
+      <c r="B13" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-    </row>
-    <row r="15" ht="20.4" spans="2:10">
-      <c r="B15" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="2:4">
-      <c r="B16" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="N13" s="50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" ht="17.6" spans="2:14">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="N14" s="50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" ht="20.4" spans="2:14">
+      <c r="B15" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="N15" s="50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="2:14">
+      <c r="B16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="D16" s="5"/>
+      <c r="N16" s="50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" ht="17.6" spans="2:14">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="39">
+      <c r="N17" s="50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" ht="17.6" spans="2:14">
+      <c r="B18" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="27">
         <v>3</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="27">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="39">
+      <c r="N18" s="50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" ht="17.6" spans="2:14">
+      <c r="B19" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="27">
         <v>6</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="27">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="39">
+      <c r="N19" s="50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" ht="17.6" spans="2:14">
+      <c r="B20" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="27">
         <v>4</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="27">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="46" t="s">
+      <c r="N20" s="50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" ht="17.6" spans="2:14">
+      <c r="B21" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="27">
+        <v>5</v>
+      </c>
+      <c r="D21" s="27">
+        <v>5</v>
+      </c>
+      <c r="N21" s="50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" ht="17.6" spans="2:14">
+      <c r="B22" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="27">
+        <v>6</v>
+      </c>
+      <c r="D22" s="27">
+        <v>6</v>
+      </c>
+      <c r="N22" s="50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" ht="17.6" spans="2:14">
+      <c r="B23" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="27">
+        <v>4</v>
+      </c>
+      <c r="D23" s="27">
+        <v>4</v>
+      </c>
+      <c r="N23" s="51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" ht="17.6" spans="2:14">
+      <c r="B24" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="27">
+        <v>5</v>
+      </c>
+      <c r="D24" s="27">
+        <v>5</v>
+      </c>
+      <c r="N24" s="51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="27">
+        <v>5</v>
+      </c>
+      <c r="D25" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="27">
+        <v>90</v>
+      </c>
+      <c r="D26" s="27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="39">
-        <v>5</v>
-      </c>
-      <c r="D21" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="39">
-        <v>6</v>
-      </c>
-      <c r="D22" s="39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="39">
-        <v>4</v>
-      </c>
-      <c r="D23" s="39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="39">
-        <v>5</v>
-      </c>
-      <c r="D24" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="39">
-        <v>5</v>
-      </c>
-      <c r="D25" s="39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="39">
-        <v>90</v>
-      </c>
-      <c r="D26" s="39">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="47">
-        <f>SUM(C18:C26)</f>
-        <v>128</v>
-      </c>
-      <c r="D27" s="47">
+      <c r="C27" s="35">
+        <v>259</v>
+      </c>
+      <c r="D27" s="35">
         <f>SUM(D18:D26)</f>
         <v>128</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" ht="20.4" spans="2:10">
-      <c r="B29" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
+      <c r="B29" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
+      <c r="C30" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="36">
         <v>0</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="37">
         <v>0</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="36">
         <v>1</v>
       </c>
-      <c r="F32" s="48">
+      <c r="F32" s="36">
         <v>6</v>
       </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="22">
+      <c r="G32" s="36"/>
+      <c r="H32" s="10">
         <f>SUM(C32:G32)</f>
         <v>7</v>
       </c>
-      <c r="I32" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="J32" s="61"/>
+      <c r="I32" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="J32" s="49"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="36">
         <v>0</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="37">
         <v>0</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="36">
         <v>0</v>
       </c>
-      <c r="F33" s="48">
+      <c r="F33" s="36">
         <v>6</v>
       </c>
-      <c r="G33" s="48"/>
-      <c r="H33" s="22">
+      <c r="G33" s="36"/>
+      <c r="H33" s="10">
         <f>SUM(C33:G33)</f>
         <v>6</v>
       </c>
-      <c r="I33" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="J33" s="61"/>
+      <c r="I33" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="J33" s="49"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="38">
         <v>0</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="38">
         <v>0</v>
       </c>
-      <c r="E34" s="50">
+      <c r="E34" s="38">
         <v>0</v>
       </c>
-      <c r="F34" s="50">
+      <c r="F34" s="38">
         <v>3</v>
       </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="22">
+      <c r="G34" s="38"/>
+      <c r="H34" s="10">
         <f t="shared" ref="H34:H39" si="3">SUM(C34:G34)</f>
         <v>3</v>
       </c>
-      <c r="I34" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="J34" s="61"/>
+      <c r="I34" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="J34" s="49"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="38">
         <v>0</v>
       </c>
-      <c r="D35" s="50">
+      <c r="D35" s="38">
         <v>0</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="38">
         <v>0</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35" s="38">
         <v>41</v>
       </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="22">
+      <c r="G35" s="38"/>
+      <c r="H35" s="10">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="I35" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="J35" s="61"/>
+      <c r="I35" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="J35" s="49"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="38">
         <v>0</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="38">
         <v>0</v>
       </c>
-      <c r="E36" s="50">
+      <c r="E36" s="38">
         <v>0</v>
       </c>
-      <c r="F36" s="50">
+      <c r="F36" s="38">
         <v>4</v>
       </c>
-      <c r="G36" s="50"/>
-      <c r="H36" s="22">
+      <c r="G36" s="38"/>
+      <c r="H36" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="I36" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="J36" s="61"/>
+      <c r="I36" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="J36" s="49"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="38">
         <v>0</v>
       </c>
-      <c r="D37" s="50">
+      <c r="D37" s="38">
         <v>1</v>
       </c>
-      <c r="E37" s="50">
+      <c r="E37" s="38">
         <v>11</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37" s="38">
         <v>21</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="22">
+      <c r="G37" s="38"/>
+      <c r="H37" s="10">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="I37" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="J37" s="61"/>
+      <c r="I37" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="J37" s="49"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="50">
+      <c r="C38" s="38">
         <v>0</v>
       </c>
-      <c r="D38" s="50">
+      <c r="D38" s="38">
         <v>0</v>
       </c>
-      <c r="E38" s="50">
+      <c r="E38" s="38">
         <v>0</v>
       </c>
-      <c r="F38" s="50">
+      <c r="F38" s="38">
         <v>1</v>
       </c>
-      <c r="G38" s="50"/>
-      <c r="H38" s="22">
+      <c r="G38" s="38"/>
+      <c r="H38" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="I38" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="J38" s="61"/>
+      <c r="I38" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="J38" s="49"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="50">
+      <c r="C39" s="38">
         <v>0</v>
       </c>
-      <c r="D39" s="50">
+      <c r="D39" s="38">
         <v>0</v>
       </c>
-      <c r="E39" s="50">
+      <c r="E39" s="38">
         <v>0</v>
       </c>
-      <c r="F39" s="50">
+      <c r="F39" s="38">
         <v>2</v>
       </c>
-      <c r="G39" s="50"/>
-      <c r="H39" s="22">
+      <c r="G39" s="38"/>
+      <c r="H39" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I39" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="J39" s="61"/>
+      <c r="I39" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="J39" s="49"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="22">
+      <c r="B40" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="10">
         <f>SUM(C32:C39)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="10">
         <f>SUM(D32:D39)</f>
         <v>1</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="10">
         <f>SUM(E32:E39)</f>
         <v>12</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="10">
         <f>SUM(F32:F39)</f>
         <v>84</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22">
-        <f>SUM(H32:H39)</f>
-        <v>97</v>
-      </c>
-      <c r="I40" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="J40" s="61"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10">
+        <v>259</v>
+      </c>
+      <c r="I40" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="J40" s="49"/>
     </row>
     <row r="42" ht="14.5" customHeight="1" spans="2:11">
-      <c r="B42" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
+      <c r="B42" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -16126,517 +14745,515 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:L70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="1.5625" style="15" customWidth="1"/>
-    <col min="2" max="3" width="14.8125" style="15" customWidth="1"/>
-    <col min="4" max="6" width="11.3125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="15" customWidth="1"/>
-    <col min="8" max="9" width="11.0625" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="1.5625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.8125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.3125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.0625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.4" spans="2:12">
-      <c r="B1" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="B1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="3:9">
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>168</v>
+      <c r="F3" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="7">
         <v>6</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="7">
         <v>6</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="14">
         <f t="shared" ref="F4:F10" si="0">IFERROR(E4/D4,"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="7">
         <v>3</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="7">
         <v>41</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="7">
         <v>41</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="7">
         <v>4</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="7">
         <v>4</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="7">
         <v>7</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="7">
         <v>33</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="7">
         <v>33</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="19">
+      <c r="B10" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="19">
-        <f>SUM(D4:D9)</f>
-        <v>88</v>
-      </c>
-      <c r="E10" s="19">
-        <f>SUM(E4:E9)</f>
-        <v>88</v>
-      </c>
-      <c r="F10" s="26">
+      <c r="D10" s="7">
+        <v>259</v>
+      </c>
+      <c r="E10" s="7">
+        <v>259</v>
+      </c>
+      <c r="F10" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" ht="20.4" spans="2:12">
-      <c r="B28" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="B28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="28"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" ht="31" spans="2:5">
-      <c r="B30" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>168</v>
+      <c r="E30" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" spans="2:5">
-      <c r="B31" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="22">
+      <c r="B31" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="10">
         <v>3</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="10">
         <v>3</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="11">
         <f t="shared" ref="E31:E39" si="1">IFERROR(D31/C31,"")</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="22">
+      <c r="B32" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="10">
         <v>6</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="10">
         <v>6</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="2:5">
-      <c r="B33" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="22">
+      <c r="B33" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="10">
         <v>4</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="10">
         <v>4</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="2:5">
-      <c r="B34" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="22">
+      <c r="B34" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="10">
         <v>5</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="10">
         <v>5</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="22">
+      <c r="B35" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="10">
         <v>6</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="10">
         <v>6</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="2:5">
-      <c r="B36" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="22">
+      <c r="B36" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="10">
         <v>4</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="10">
         <v>4</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="22">
+      <c r="B37" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="10">
         <v>5</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="10">
         <v>5</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="22">
+      <c r="B38" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="10">
         <v>5</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="10">
         <v>5</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="2:5">
-      <c r="B39" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="22">
+      <c r="B39" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="10">
         <v>90</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="10">
         <v>90</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" ht="20.4" spans="2:12">
-      <c r="B42" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="B42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
     </row>
     <row r="43" spans="3:6">
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" ht="20.15" customHeight="1" spans="2:5">
-      <c r="B44" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="28"/>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" ht="20.15" customHeight="1" spans="2:5">
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="10">
         <v>64</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="10">
         <v>33</v>
       </c>
-      <c r="E45" s="28"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="10">
         <v>64</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="10">
         <v>33</v>
       </c>
-      <c r="E46" s="28"/>
+      <c r="E46" s="16"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" s="23">
+      <c r="B47" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="11">
         <f>IFERROR(C46/C45,"")</f>
         <v>1</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="11">
         <f>IFERROR(D46/D45,"")</f>
         <v>1</v>
       </c>
-      <c r="E47" s="28"/>
+      <c r="E47" s="16"/>
     </row>
     <row r="48" spans="3:6">
-      <c r="C48" s="24"/>
-      <c r="F48" s="28"/>
+      <c r="C48" s="12"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="65" ht="20.4" spans="2:12">
-      <c r="B65" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
+      <c r="B65" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="28"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
+      <c r="B67" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>164</v>
+      <c r="B68" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C69" s="22">
+      <c r="B69" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="10">
         <v>1</v>
       </c>
-      <c r="D69" s="22">
+      <c r="D69" s="10">
         <v>12</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E69" s="10">
         <v>12</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="10">
         <v>84</v>
       </c>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="31">
+      <c r="B70" s="19">
         <f>IFERROR(B69/SUM($B$69:$F$69),"")</f>
         <v>0</v>
       </c>
-      <c r="C70" s="31">
+      <c r="C70" s="19">
         <f t="shared" ref="C70:F70" si="2">IFERROR(C69/SUM($B$69:$F$69),"")</f>
         <v>0.00917431192660551</v>
       </c>
-      <c r="D70" s="31">
+      <c r="D70" s="19">
         <f t="shared" si="2"/>
         <v>0.110091743119266</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="19">
         <f t="shared" si="2"/>
         <v>0.110091743119266</v>
       </c>
-      <c r="F70" s="31">
+      <c r="F70" s="19">
         <f t="shared" si="2"/>
         <v>0.770642201834862</v>
       </c>
